--- a/Documentação/Sprint 4/UC12_Eliminar_Candidatura/UC12_Eliminar_Candidatura_Plano_de_Testes.xlsx
+++ b/Documentação/Sprint 4/UC12_Eliminar_Candidatura/UC12_Eliminar_Candidatura_Plano_de_Testes.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1614701229" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1614701229" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1614701229" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1614701229"/>
+      <pm:revision xmlns:pm="smNativeData" day="1614702623" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1614702623" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1614702623" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1614702623"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Project Name</t>
   </si>
@@ -58,76 +58,51 @@
     <t>UC12_TS002</t>
   </si>
   <si>
-    <t>UC12_TS003</t>
-  </si>
-  <si>
-    <t>UC12_TS004</t>
-  </si>
-  <si>
     <t>Test Scenario Description</t>
   </si>
   <si>
-    <t>Registo de Freelancer</t>
+    <t>Eliminar Candidatura</t>
   </si>
   <si>
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>Add_Free_001</t>
-  </si>
-  <si>
-    <t>Add_Free_002</t>
-  </si>
-  <si>
-    <t>Add_Free_003</t>
-  </si>
-  <si>
-    <t>Add_Free_004</t>
+    <t>DeleteCandidatura_001</t>
+  </si>
+  <si>
+    <t>DeleteCandidatura_002</t>
   </si>
   <si>
     <t>Test Case Description</t>
   </si>
   <si>
-    <t>Administrativo registado na Plataforma</t>
+    <t>Freelancer registado na Plataforma</t>
   </si>
   <si>
     <t>Test Case Steps</t>
   </si>
   <si>
-    <t>1. O Administrativo inicia o processo de registo de um Freelancer na Plataforma.
-2. O Sistema solicita os dados  do freelancer (nome, NIF, endereço postal, contacto telefónico, email).
-3. O Administrativo introduz os dados solicitados.
-4. O Sistema solicita habilitações académicas (grau, designação do curso, instituição que concedeu o grau e média do curso).
-5. O Administrativo introduz os dados solicitados.
-**Os passos 4 a 5 repetem-se enquanto não forem introduzidas todos os dados pedidos**
-6. O Sistema solicita reconhecimentos de competências técnicas (data, competência técnica e grau de proficiência).
-7. O Administrativo instroduz os dados solicitados.
-**Os passos 6 a 7 repetem-se enquanto não forem introduzidas todos os dados pedidos**
-8. O Sistema apresenta dados e solicita confirmação.
-9. O Administrativo confirma os dados inseridos.
-10. O Sistema informa que a operação foi bem sucedida.</t>
-  </si>
-  <si>
-    <t>*A. O Administrativo solicita o cancelamento do registo de Freelancer.
-&gt; O caso de uso termina.</t>
-  </si>
-  <si>
-    <t>*B. O Administrativo não possui dados obrigatórios sobre as habilitações académicas do Freelancer.
-&gt; 1. O Sistema informa ao Administrativo que dados estão em falta.  
-&gt; 2. O Administrativo não introduz os dados em falta.
-&gt; O caso de uso termina.</t>
-  </si>
-  <si>
-    <t>*C. O Administrativo não possui dados obrigatórios sobre o reconhecimento das competências técnicas do Freelancer.
-&gt; 1. O Sistema informa ao Administrativo que dados estão em falta.  
-&gt; 2. O Administrativo não introduz os dados em falta.
-&gt; O caso de uso termina.</t>
+    <t>1. O Freelancer efetua o login no sistema;
+2. O Freelancer pede para consultar as suas candidaturas a anúncios;
+3. O Freelancer solicita a eliminação de uma das suas candidaturas;
+4. O Sistema solicita a confirmação deste pedido;
+5. O Freelancer confirma o seu pedido;
+6. O Sistema procede à eliminação da candidatura em questão;
+7. O Sistema informa que o procedimento foi realizado com sucesso.</t>
+  </si>
+  <si>
+    <t>1. O Freelancer efetua o login no sistema;
+2. O Freelancer pede para consultar as suas candidaturas a anúncios;
+3. O Freelancer solicita a eliminação de uma das suas candidaturas;
+4. O Sistema solicita a confirmação deste pedido;
+5. O Freelancer não confirma o seu pedido.
+-&gt; O caso de uso termina.</t>
   </si>
   <si>
     <t>Preconditions</t>
   </si>
   <si>
-    <t>O Freelancer não deve ainda estar registado na Plataforma</t>
+    <t>O Freelancer deve ter candidaturas elegíveis para que possa solicitar a sua eliminação</t>
   </si>
   <si>
     <t>Test Data</t>
@@ -141,27 +116,16 @@
 password: 1235</t>
   </si>
   <si>
-    <t>username: a@b.pt
-password: 1236</t>
-  </si>
-  <si>
-    <t>username: a@b.pt
-password: 1237</t>
-  </si>
-  <si>
     <t>Post Conditions</t>
   </si>
   <si>
-    <t>O Freelancer fica registado na Plataforma</t>
+    <t>O Freelancer consegue eliminar uma candidatura que tenha efetuado</t>
   </si>
   <si>
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Error Message : Falha no registo do Freelancer</t>
-  </si>
-  <si>
-    <t>Popup: Falha no registo do Freelancer</t>
+    <t>Error Message : A operação foi cancelada.</t>
   </si>
   <si>
     <t>Actual Result</t>
@@ -211,7 +175,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614701229" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614702623" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Times New Roman" sz="240" lang="default"/>
             <pm:ea face="SimSun" sz="240" lang="default"/>
@@ -226,7 +190,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614701229" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614702623" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -241,7 +205,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1614701229" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1614702623" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -263,7 +227,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1614701229" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1614702623" type="1" fgLvl="100" fgClr="00FFFFCC" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -274,7 +238,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1614701229" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1614702623" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -296,7 +260,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614701229"/>
+          <pm:border xmlns:pm="smNativeData" id="1614702623"/>
         </ext>
       </extLst>
     </border>
@@ -315,7 +279,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614701229">
+          <pm:border xmlns:pm="smNativeData" id="1614702623">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="B2B2B2"/>
@@ -339,7 +303,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1614701229"/>
+          <pm:border xmlns:pm="smNativeData" id="1614702623"/>
         </ext>
       </extLst>
     </border>
@@ -397,10 +361,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1614701229" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1614702623" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1614701229" count="2">
+      <pm:colors xmlns:pm="smNativeData" id="1614702623" count="2">
         <pm:color name="Color 24" rgb="FFFFCC"/>
         <pm:color name="Color 25" rgb="B2B2B2"/>
       </pm:colors>
@@ -667,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.60"/>
@@ -733,128 +697,100 @@
       <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="409.60" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -863,59 +799,47 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>40</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
@@ -925,7 +849,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
@@ -935,7 +859,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
@@ -947,7 +871,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1614701229" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1614702623" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -956,16 +880,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1614701229" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1614701229" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1614701229" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1614701229" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1614702623" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1614702623" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1614702623" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1614702623" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614701229" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1614702623" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
